--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cdh1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cdh1-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cdh1</t>
+  </si>
+  <si>
+    <t>Egfr</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cdh1</t>
-  </si>
-  <si>
-    <t>Egfr</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.002166666666666667</v>
+        <v>0.7853443333333333</v>
       </c>
       <c r="H2">
-        <v>0.0065</v>
+        <v>2.356033</v>
       </c>
       <c r="I2">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="J2">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N2">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q2">
-        <v>0.001513707</v>
+        <v>1.284310237702222</v>
       </c>
       <c r="R2">
-        <v>0.013623363</v>
+        <v>11.55879213932</v>
       </c>
       <c r="S2">
-        <v>1.167056187715301E-05</v>
+        <v>0.00686008663813382</v>
       </c>
       <c r="T2">
-        <v>1.167056187715301E-05</v>
+        <v>0.006860086638133819</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.002166666666666667</v>
+        <v>0.7853443333333333</v>
       </c>
       <c r="H3">
-        <v>0.0065</v>
+        <v>2.356033</v>
       </c>
       <c r="I3">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="J3">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
         <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q3">
-        <v>0.09948545461111109</v>
+        <v>36.06015601288923</v>
       </c>
       <c r="R3">
-        <v>0.8953690914999999</v>
+        <v>324.541404116003</v>
       </c>
       <c r="S3">
-        <v>0.0007670250279054465</v>
+        <v>0.1926137370637377</v>
       </c>
       <c r="T3">
-        <v>0.0007670250279054462</v>
+        <v>0.1926137370637377</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.002166666666666667</v>
+        <v>0.7853443333333333</v>
       </c>
       <c r="H4">
-        <v>0.0065</v>
+        <v>2.356033</v>
       </c>
       <c r="I4">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="J4">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N4">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q4">
-        <v>0.0005049770555555556</v>
+        <v>0.6596612293854444</v>
       </c>
       <c r="R4">
-        <v>0.0045447935</v>
+        <v>5.936951064469</v>
       </c>
       <c r="S4">
-        <v>3.893333368613375E-06</v>
+        <v>0.003523551438395721</v>
       </c>
       <c r="T4">
-        <v>3.893333368613374E-06</v>
+        <v>0.003523551438395721</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.002166666666666667</v>
+        <v>0.7853443333333333</v>
       </c>
       <c r="H5">
-        <v>0.0065</v>
+        <v>2.356033</v>
       </c>
       <c r="I5">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="J5">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N5">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q5">
-        <v>0.04287102372222222</v>
+        <v>5.961572132881889</v>
       </c>
       <c r="R5">
-        <v>0.3858392135</v>
+        <v>53.65414919593699</v>
       </c>
       <c r="S5">
-        <v>0.0003305322199653494</v>
+        <v>0.03184347529941302</v>
       </c>
       <c r="T5">
-        <v>0.0003305322199653493</v>
+        <v>0.03184347529941302</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.002166666666666667</v>
+        <v>0.7853443333333333</v>
       </c>
       <c r="H6">
-        <v>0.0065</v>
+        <v>2.356033</v>
       </c>
       <c r="I6">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="J6">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N6">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q6">
-        <v>0.005503152777777777</v>
+        <v>3.754304815693667</v>
       </c>
       <c r="R6">
-        <v>0.049528375</v>
+        <v>33.788743341243</v>
       </c>
       <c r="S6">
-        <v>4.242887494903706E-05</v>
+        <v>0.02005345402190358</v>
       </c>
       <c r="T6">
-        <v>4.242887494903705E-05</v>
+        <v>0.02005345402190358</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.002166666666666667</v>
+        <v>0.7853443333333333</v>
       </c>
       <c r="H7">
-        <v>0.0065</v>
+        <v>2.356033</v>
       </c>
       <c r="I7">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="J7">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N7">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q7">
-        <v>0.0009493639999999999</v>
+        <v>0.135587343117</v>
       </c>
       <c r="R7">
-        <v>0.008544275999999998</v>
+        <v>1.220286088053</v>
       </c>
       <c r="S7">
-        <v>7.319521747565078E-06</v>
+        <v>0.0007242338287991269</v>
       </c>
       <c r="T7">
-        <v>7.319521747565077E-06</v>
+        <v>0.0007242338287991268</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.3005456666666667</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H8">
-        <v>0.901637</v>
+        <v>0.324044</v>
       </c>
       <c r="I8">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J8">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N8">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q8">
-        <v>0.209971421286</v>
+        <v>0.1766414250844444</v>
       </c>
       <c r="R8">
-        <v>1.889742791574</v>
+        <v>1.58977282576</v>
       </c>
       <c r="S8">
-        <v>0.001618863138343171</v>
+        <v>0.000943522401667309</v>
       </c>
       <c r="T8">
-        <v>0.001618863138343171</v>
+        <v>0.0009435224016673091</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.3005456666666667</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H9">
-        <v>0.901637</v>
+        <v>0.324044</v>
       </c>
       <c r="I9">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J9">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N9">
         <v>137.749091</v>
       </c>
       <c r="O9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q9">
-        <v>13.79996412910744</v>
+        <v>4.959640716000445</v>
       </c>
       <c r="R9">
-        <v>124.199677161967</v>
+        <v>44.63676644400401</v>
       </c>
       <c r="S9">
-        <v>0.1063966377054743</v>
+        <v>0.02649170271090507</v>
       </c>
       <c r="T9">
-        <v>0.1063966377054743</v>
+        <v>0.02649170271090508</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3005456666666667</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H10">
-        <v>0.901637</v>
+        <v>0.324044</v>
       </c>
       <c r="I10">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J10">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N10">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q10">
-        <v>0.07004707652922222</v>
+        <v>0.09072846747688887</v>
       </c>
       <c r="R10">
-        <v>0.630423688763</v>
+        <v>0.816556207292</v>
       </c>
       <c r="S10">
-        <v>0.0005400574489963781</v>
+        <v>0.0004846221179005145</v>
       </c>
       <c r="T10">
-        <v>0.000540057448996378</v>
+        <v>0.0004846221179005145</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.3005456666666667</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H11">
-        <v>0.901637</v>
+        <v>0.324044</v>
       </c>
       <c r="I11">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J11">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N11">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q11">
-        <v>5.946784802435889</v>
+        <v>0.8199425391017777</v>
       </c>
       <c r="R11">
-        <v>53.52106322192301</v>
+        <v>7.379482851915999</v>
       </c>
       <c r="S11">
-        <v>0.04584924295583042</v>
+        <v>0.004379687003502494</v>
       </c>
       <c r="T11">
-        <v>0.04584924295583041</v>
+        <v>0.004379687003502494</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3005456666666667</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H12">
-        <v>0.901637</v>
+        <v>0.324044</v>
       </c>
       <c r="I12">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J12">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N12">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q12">
-        <v>0.7633609478611111</v>
+        <v>0.5163594693693333</v>
       </c>
       <c r="R12">
-        <v>6.87024853075</v>
+        <v>4.647235224324</v>
       </c>
       <c r="S12">
-        <v>0.005885452849603835</v>
+        <v>0.002758111391085661</v>
       </c>
       <c r="T12">
-        <v>0.005885452849603834</v>
+        <v>0.002758111391085661</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,46 +1225,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3005456666666667</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H13">
-        <v>0.901637</v>
+        <v>0.324044</v>
       </c>
       <c r="I13">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J13">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N13">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q13">
-        <v>0.131689493672</v>
+        <v>0.018648408156</v>
       </c>
       <c r="R13">
-        <v>1.185205443048</v>
+        <v>0.167835673404</v>
       </c>
       <c r="S13">
-        <v>0.001015315635370667</v>
+        <v>9.960965182549831E-05</v>
       </c>
       <c r="T13">
-        <v>0.001015315635370667</v>
+        <v>9.960965182549831E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,14 +1272,14 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
         <v>3</v>
       </c>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1946053333333333</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H14">
-        <v>0.583816</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I14">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J14">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N14">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O14">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P14">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q14">
-        <v>0.135957902448</v>
+        <v>2.843911462577778</v>
       </c>
       <c r="R14">
-        <v>1.223621122032</v>
+        <v>25.5952031632</v>
       </c>
       <c r="S14">
-        <v>0.001048224731211071</v>
+        <v>0.01519062797425808</v>
       </c>
       <c r="T14">
-        <v>0.001048224731211071</v>
+        <v>0.01519062797425808</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1946053333333333</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H15">
-        <v>0.583816</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I15">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J15">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N15">
         <v>137.749091</v>
       </c>
       <c r="O15">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P15">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q15">
-        <v>8.935569256806222</v>
+        <v>79.84978085269779</v>
       </c>
       <c r="R15">
-        <v>80.42012331125599</v>
+        <v>718.64802767428</v>
       </c>
       <c r="S15">
-        <v>0.06889253595256094</v>
+        <v>0.4265140918486645</v>
       </c>
       <c r="T15">
-        <v>0.06889253595256092</v>
+        <v>0.4265140918486645</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1946053333333333</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H16">
-        <v>0.583816</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I16">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J16">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N16">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O16">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P16">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q16">
-        <v>0.04535595148711111</v>
+        <v>1.460720374715555</v>
       </c>
       <c r="R16">
-        <v>0.408203563384</v>
+        <v>13.14648337244</v>
       </c>
       <c r="S16">
-        <v>0.0003496908175277517</v>
+        <v>0.007802373624743603</v>
       </c>
       <c r="T16">
-        <v>0.0003496908175277517</v>
+        <v>0.007802373624743602</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1946053333333333</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H17">
-        <v>0.583816</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I17">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J17">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N17">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O17">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P17">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q17">
-        <v>3.850583013140445</v>
+        <v>13.20100301779111</v>
       </c>
       <c r="R17">
-        <v>34.655247118264</v>
+        <v>118.80902716012</v>
       </c>
       <c r="S17">
-        <v>0.02968769208173699</v>
+        <v>0.07051257691002701</v>
       </c>
       <c r="T17">
-        <v>0.02968769208173698</v>
+        <v>0.07051257691002701</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1946053333333333</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H18">
-        <v>0.583816</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I18">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J18">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N18">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O18">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P18">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q18">
-        <v>0.4942813295555555</v>
+        <v>8.313342201853333</v>
       </c>
       <c r="R18">
-        <v>4.448531966</v>
+        <v>74.82007981667999</v>
       </c>
       <c r="S18">
-        <v>0.003810870162653387</v>
+        <v>0.04440535166892515</v>
       </c>
       <c r="T18">
-        <v>0.003810870162653387</v>
+        <v>0.04440535166892515</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1946053333333333</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H19">
-        <v>0.583816</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I19">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J19">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N19">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O19">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P19">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q19">
-        <v>0.08526982969599999</v>
+        <v>0.3002377369199999</v>
       </c>
       <c r="R19">
-        <v>0.7674284672639999</v>
+        <v>2.70213963228</v>
       </c>
       <c r="S19">
-        <v>0.0006574236782425313</v>
+        <v>0.001603706664359688</v>
       </c>
       <c r="T19">
-        <v>0.0006574236782425312</v>
+        <v>0.001603706664359688</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,14 +1644,14 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
       <c r="E20">
         <v>3</v>
       </c>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.57216</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H20">
-        <v>1.71648</v>
+        <v>1.319831</v>
       </c>
       <c r="I20">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J20">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N20">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O20">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P20">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q20">
-        <v>0.39973042944</v>
+        <v>0.7194604088044445</v>
       </c>
       <c r="R20">
-        <v>3.59757386496</v>
+        <v>6.475143679239999</v>
       </c>
       <c r="S20">
-        <v>0.003081890161676246</v>
+        <v>0.003842966124708269</v>
       </c>
       <c r="T20">
-        <v>0.003081890161676246</v>
+        <v>0.003842966124708269</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.57216</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H21">
-        <v>1.71648</v>
+        <v>1.319831</v>
       </c>
       <c r="I21">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J21">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N21">
         <v>137.749091</v>
       </c>
       <c r="O21">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P21">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q21">
-        <v>26.27150663552</v>
+        <v>20.20061339151345</v>
       </c>
       <c r="R21">
-        <v>236.44355971968</v>
+        <v>181.805520523621</v>
       </c>
       <c r="S21">
-        <v>0.2025512492152524</v>
+        <v>0.107900687809793</v>
       </c>
       <c r="T21">
-        <v>0.2025512492152524</v>
+        <v>0.107900687809793</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,13 +1768,13 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.57216</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H22">
-        <v>1.71648</v>
+        <v>1.319831</v>
       </c>
       <c r="I22">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J22">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N22">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O22">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P22">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q22">
-        <v>0.13335123328</v>
+        <v>0.3695369886758889</v>
       </c>
       <c r="R22">
-        <v>1.20016109952</v>
+        <v>3.325832898083</v>
       </c>
       <c r="S22">
-        <v>0.001028127517008844</v>
+        <v>0.00197386556915343</v>
       </c>
       <c r="T22">
-        <v>0.001028127517008844</v>
+        <v>0.00197386556915343</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,13 +1830,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.57216</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H23">
-        <v>1.71648</v>
+        <v>1.319831</v>
       </c>
       <c r="I23">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J23">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N23">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O23">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P23">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q23">
-        <v>11.32111612288</v>
+        <v>3.339625425328778</v>
       </c>
       <c r="R23">
-        <v>101.89004510592</v>
+        <v>30.056628827959</v>
       </c>
       <c r="S23">
-        <v>0.08728491460401891</v>
+        <v>0.01783846229993365</v>
       </c>
       <c r="T23">
-        <v>0.08728491460401891</v>
+        <v>0.01783846229993365</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.57216</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H24">
-        <v>1.71648</v>
+        <v>1.319831</v>
       </c>
       <c r="I24">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J24">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N24">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O24">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P24">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q24">
-        <v>1.45323872</v>
+        <v>2.103131780922333</v>
       </c>
       <c r="R24">
-        <v>13.07914848</v>
+        <v>18.928186028301</v>
       </c>
       <c r="S24">
-        <v>0.01120435619577279</v>
+        <v>0.01123378589144678</v>
       </c>
       <c r="T24">
-        <v>0.01120435619577279</v>
+        <v>0.01123378589144678</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,418 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.57216</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H25">
-        <v>1.71648</v>
+        <v>1.319831</v>
       </c>
       <c r="I25">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J25">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N25">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O25">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P25">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q25">
-        <v>0.2507022028799999</v>
+        <v>0.075954954219</v>
       </c>
       <c r="R25">
-        <v>2.25631982592</v>
+        <v>0.6835945879709999</v>
       </c>
       <c r="S25">
-        <v>0.001932894259886232</v>
+        <v>0.0004057100467174188</v>
       </c>
       <c r="T25">
-        <v>0.001932894259886232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.7937293333333334</v>
-      </c>
-      <c r="H26">
-        <v>2.381188</v>
-      </c>
-      <c r="I26">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="J26">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.6986340000000001</v>
-      </c>
-      <c r="N26">
-        <v>2.095902</v>
-      </c>
-      <c r="O26">
-        <v>0.0100360027308206</v>
-      </c>
-      <c r="P26">
-        <v>0.0100360027308206</v>
-      </c>
-      <c r="Q26">
-        <v>0.5545262990640001</v>
-      </c>
-      <c r="R26">
-        <v>4.990736691576001</v>
-      </c>
-      <c r="S26">
-        <v>0.004275354137712959</v>
-      </c>
-      <c r="T26">
-        <v>0.004275354137712959</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.7937293333333334</v>
-      </c>
-      <c r="H27">
-        <v>2.381188</v>
-      </c>
-      <c r="I27">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="J27">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>45.91636366666666</v>
-      </c>
-      <c r="N27">
-        <v>137.749091</v>
-      </c>
-      <c r="O27">
-        <v>0.6595968005393645</v>
-      </c>
-      <c r="P27">
-        <v>0.6595968005393645</v>
-      </c>
-      <c r="Q27">
-        <v>36.44516472223422</v>
-      </c>
-      <c r="R27">
-        <v>328.006482500108</v>
-      </c>
-      <c r="S27">
-        <v>0.2809893526381714</v>
-      </c>
-      <c r="T27">
-        <v>0.2809893526381714</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.7937293333333334</v>
-      </c>
-      <c r="H28">
-        <v>2.381188</v>
-      </c>
-      <c r="I28">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="J28">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0.2330663333333333</v>
-      </c>
-      <c r="N28">
-        <v>0.699199</v>
-      </c>
-      <c r="O28">
-        <v>0.003348039685723394</v>
-      </c>
-      <c r="P28">
-        <v>0.003348039685723394</v>
-      </c>
-      <c r="Q28">
-        <v>0.1849915853791111</v>
-      </c>
-      <c r="R28">
-        <v>1.664924268412</v>
-      </c>
-      <c r="S28">
-        <v>0.001426270568821807</v>
-      </c>
-      <c r="T28">
-        <v>0.001426270568821807</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.7937293333333334</v>
-      </c>
-      <c r="H29">
-        <v>2.381188</v>
-      </c>
-      <c r="I29">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="J29">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>19.78662633333333</v>
-      </c>
-      <c r="N29">
-        <v>59.35987900000001</v>
-      </c>
-      <c r="O29">
-        <v>0.284238436599221</v>
-      </c>
-      <c r="P29">
-        <v>0.284238436599221</v>
-      </c>
-      <c r="Q29">
-        <v>15.70522572847245</v>
-      </c>
-      <c r="R29">
-        <v>141.347031556252</v>
-      </c>
-      <c r="S29">
-        <v>0.1210860547376693</v>
-      </c>
-      <c r="T29">
-        <v>0.1210860547376693</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.7937293333333334</v>
-      </c>
-      <c r="H30">
-        <v>2.381188</v>
-      </c>
-      <c r="I30">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="J30">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>2.539916666666667</v>
-      </c>
-      <c r="N30">
-        <v>7.61975</v>
-      </c>
-      <c r="O30">
-        <v>0.03648635852638638</v>
-      </c>
-      <c r="P30">
-        <v>0.03648635852638638</v>
-      </c>
-      <c r="Q30">
-        <v>2.016006362555556</v>
-      </c>
-      <c r="R30">
-        <v>18.144057263</v>
-      </c>
-      <c r="S30">
-        <v>0.01554325044340733</v>
-      </c>
-      <c r="T30">
-        <v>0.01554325044340733</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.7937293333333334</v>
-      </c>
-      <c r="H31">
-        <v>2.381188</v>
-      </c>
-      <c r="I31">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="J31">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.4381679999999999</v>
-      </c>
-      <c r="N31">
-        <v>1.314504</v>
-      </c>
-      <c r="O31">
-        <v>0.006294361918484071</v>
-      </c>
-      <c r="P31">
-        <v>0.006294361918484071</v>
-      </c>
-      <c r="Q31">
-        <v>0.347786794528</v>
-      </c>
-      <c r="R31">
-        <v>3.130081150752</v>
-      </c>
-      <c r="S31">
-        <v>0.002681408823237076</v>
-      </c>
-      <c r="T31">
-        <v>0.002681408823237076</v>
+        <v>0.0004057100467174188</v>
       </c>
     </row>
   </sheetData>
